--- a/Document/PROGRAM_SPEC/테이블 정의서.xlsx
+++ b/Document/PROGRAM_SPEC/테이블 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="288" yWindow="108" windowWidth="10440" windowHeight="9696"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
   <si>
     <t>CBO 테이블 정의서</t>
   </si>
@@ -264,12 +269,101 @@
   <si>
     <t>FIELD</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGR_TABLE_SICS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정윤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR 관리 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 조회 및 GR 생성 시 필요한 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAKTX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABST</t>
+  </si>
+  <si>
+    <t>QUAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WERKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLANT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WERKS</t>
+  </si>
+  <si>
+    <t>LGORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGORT</t>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +589,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,9 +661,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,64 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,6 +687,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -641,7 +738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -900,819 +997,1053 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="2"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="2"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="16">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="16">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="6">
         <v>10</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="16">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="16">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="4">
         <v>40</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="16">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="16">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="4">
         <v>3</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="16">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="16">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="16">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="4">
         <v>12</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="16">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="4">
         <v>8</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="16">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="4">
         <v>6</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="16">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="4">
         <v>12</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="16">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="16">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="A27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="A28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="17"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="A29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="A30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="4">
+        <v>40</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="4">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="4">
+        <v>12</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="A42" s="4">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="A44" s="4">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4">
+        <v>12</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="A45" s="4">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="4">
+        <v>8</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="4">
+        <v>6</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="A48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="30">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="A4:B4"/>
@@ -1721,13 +2052,6 @@
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/PROGRAM_SPEC/테이블 정의서.xlsx
+++ b/Document/PROGRAM_SPEC/테이블 정의서.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="288" yWindow="108" windowWidth="10440" windowHeight="9696"/>
   </bookViews>
   <sheets>
     <sheet name="SO관리" sheetId="1" r:id="rId1"/>
+    <sheet name="GR관리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>CBO 테이블 정의서</t>
   </si>
@@ -41,329 +37,359 @@
     <t xml:space="preserve">테이블 </t>
   </si>
   <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>이성민</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 명</t>
+  </si>
+  <si>
+    <t>SO 관리 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 용도</t>
+  </si>
+  <si>
+    <t>SO를 이용하여 PR을 생성할 때 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 유형</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data Element</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Check Table</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>MANDT</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>클라이언트</t>
+  </si>
+  <si>
+    <t>CLNT</t>
+  </si>
+  <si>
+    <t>CAHR</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>MATNR</t>
+  </si>
+  <si>
+    <t>자재 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERNAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERDAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBELN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERZET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AENAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEDAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEZET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEINS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZMENG</t>
+  </si>
+  <si>
+    <t>ZMENG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATNR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU_PARTNER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객회사번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBAK (HEADER), VBAP (ITEM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ZSO_TABLE_SICS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>이성민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 명</t>
-  </si>
-  <si>
-    <t>SO 관리 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 용도</t>
-  </si>
-  <si>
-    <t>SO를 이용하여 PR을 생성할 때 사용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 유형</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Data Element</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Check Table</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>MANDT</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>클라이언트</t>
-  </si>
-  <si>
-    <t>CLNT</t>
-  </si>
-  <si>
-    <t>CAHR</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>MATNR</t>
+    <t>OCSTT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN/CLOSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>2021.07.28</t>
+  </si>
+  <si>
+    <t>ZGR_TABLE_SICS</t>
+  </si>
+  <si>
+    <t>최정윤</t>
+  </si>
+  <si>
+    <t>GR 관리 테이블</t>
+  </si>
+  <si>
+    <t>재고 조회 및 GR 생성 시 필요한 테이블</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>SIZE</t>
   </si>
   <si>
     <t>자재 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAKTX</t>
+  </si>
+  <si>
+    <t>자재명</t>
+  </si>
+  <si>
+    <t>LABST</t>
+  </si>
+  <si>
+    <t>수량</t>
   </si>
   <si>
     <t>QUAN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEINS</t>
   </si>
   <si>
     <t>단위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>WERKS</t>
+  </si>
+  <si>
+    <t>PLANT</t>
+  </si>
+  <si>
+    <t>LGORT</t>
+  </si>
+  <si>
+    <t>창고</t>
+  </si>
+  <si>
+    <t>ERNAM</t>
   </si>
   <si>
     <t>생성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERDAT</t>
+  </si>
+  <si>
+    <t>생성일자</t>
+  </si>
+  <si>
+    <t>DATS</t>
+  </si>
+  <si>
+    <t>ERZET</t>
   </si>
   <si>
     <t>생성시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMS</t>
+  </si>
+  <si>
+    <t>AENAM</t>
   </si>
   <si>
     <t>변경자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEDAT</t>
   </si>
   <si>
     <t>변경일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEZET</t>
   </si>
   <si>
     <t>변경시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERNAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERDAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBELN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERZET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AENAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEDAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEZET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEINS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUDAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZMENG</t>
-  </si>
-  <si>
-    <t>ZMENG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATNR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BU_PARTNER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객회사번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>참조 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBAK (HEADER), VBAP (ITEM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIZE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIELD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.07.28</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZGR_TABLE_SICS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최정윤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GR 관리 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고 조회 및 GR 생성 시 필요한 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAKTX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자재명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABST</t>
-  </si>
-  <si>
-    <t>QUAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WERKS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLANT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WERKS</t>
-  </si>
-  <si>
-    <t>LGORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGORT</t>
-  </si>
-  <si>
-    <t>생성자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경일자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +648,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,44 +684,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,9 +734,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,7 +817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -997,132 +1041,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -1131,19 +1175,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1157,19 +1201,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6">
         <v>10</v>
@@ -1183,19 +1227,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
@@ -1209,19 +1253,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4">
         <v>40</v>
@@ -1235,20 +1279,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="7"/>
@@ -1259,17 +1303,17 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
@@ -1283,24 +1327,24 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4">
         <v>10</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -1308,20 +1352,24 @@
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1329,17 +1377,17 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4">
         <v>12</v>
@@ -1353,17 +1401,17 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="4">
         <v>8</v>
@@ -1377,17 +1425,17 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="4">
         <v>6</v>
@@ -1401,17 +1449,17 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="4">
         <v>12</v>
@@ -1425,17 +1473,17 @@
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4">
         <v>8</v>
@@ -1449,17 +1497,17 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4">
         <v>6</v>
@@ -1481,19 +1529,19 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -1533,479 +1581,267 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="4">
-        <v>3</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="6">
-        <v>40</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="4">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="4">
-        <v>13.3</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="4">
-        <v>4</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="4">
-        <v>4</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
-        <v>8</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="4">
-        <v>12</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <v>9</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="4">
-        <v>8</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
-        <v>10</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="4">
-        <v>6</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <v>11</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="4">
-        <v>12</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="4">
-        <v>8</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <v>13</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
@@ -2021,22 +1857,15 @@
       <c r="J49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:I29"/>
+  <mergeCells count="15">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -2044,8 +1873,487 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:I23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="31">
+        <v>3</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="31">
+        <v>2</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="32">
+        <v>40</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="31">
+        <v>40</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="31">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="31">
+        <v>5</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="31">
+        <v>3</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="31">
+        <v>6</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="31">
+        <v>4</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="31">
+        <v>7</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="31">
+        <v>4</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="31">
+        <v>8</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="31">
+        <v>12</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="31">
+        <v>9</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="31">
+        <v>8</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="31">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="31">
+        <v>6</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="31">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="31">
+        <v>12</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="31">
+        <v>12</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="31">
+        <v>8</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="31">
+        <v>13</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="31">
+        <v>6</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A5:B5"/>

--- a/Document/PROGRAM_SPEC/테이블 정의서.xlsx
+++ b/Document/PROGRAM_SPEC/테이블 정의서.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="108" windowWidth="10440" windowHeight="9696"/>
+    <workbookView xWindow="288" yWindow="108" windowWidth="10440" windowHeight="9696" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SO관리" sheetId="1" r:id="rId1"/>
     <sheet name="GR관리" sheetId="2" r:id="rId2"/>
+    <sheet name="PO관리" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
   <si>
     <t>CBO 테이블 정의서</t>
   </si>
@@ -384,6 +385,185 @@
   </si>
   <si>
     <t>참조 테이블</t>
+  </si>
+  <si>
+    <t>2021.07.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPO_TABLE_SICS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송창대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO 생성 관리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR과 INF.RCD를 이용하여 PO을 생성할 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATNR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATNR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANFN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Requisition Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBELN</t>
+  </si>
+  <si>
+    <t>Purchasing Document Number</t>
+  </si>
+  <si>
+    <t>BSART</t>
+  </si>
+  <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>Vendor's account number</t>
+  </si>
+  <si>
+    <t>ELIFN</t>
+  </si>
+  <si>
+    <t>EKORG</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchasing organization</t>
+  </si>
+  <si>
+    <t>EKGRP</t>
+  </si>
+  <si>
+    <t>Purchasing Group</t>
+  </si>
+  <si>
+    <t>BUKRS</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>LOEKZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deletion indicator in purchasing document</t>
+  </si>
+  <si>
+    <t>ELOEK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Type (Purchasing)</t>
+  </si>
+  <si>
+    <t>MENGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Order Quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSTMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEINS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Order Unit of Measure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSTME</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEDAT</t>
+  </si>
+  <si>
+    <t>Purchasing Document Date</t>
+  </si>
+  <si>
+    <t>EBDAT</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>EWERK</t>
+  </si>
+  <si>
+    <t>Storage location</t>
+  </si>
+  <si>
+    <t>LGORT_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEIND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 테이블(스트럭쳐)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEPO1222 (HEADER), MEPO1211 (ITEM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,6 +828,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,62 +894,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1041,64 +1221,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
@@ -1111,10 +1291,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
@@ -1529,19 +1709,19 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -1858,8 +2038,495 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="15">
+        <v>40</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="14">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="14">
+        <v>13.3</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="14">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="14">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="14">
+        <v>12</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="14">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="14">
+        <v>8</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="14">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="14">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="14">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="14">
+        <v>12</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="14">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="14">
+        <v>8</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="14">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="14">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A5:B5"/>
@@ -1879,74 +2546,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1956,12 +2623,12 @@
       <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -1984,367 +2651,465 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="31">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="31">
+      <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="B9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="15">
         <v>40</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="31">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="B10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="31">
-        <v>40</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="31">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="31">
+      <c r="A12" s="14">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="31">
+      <c r="B12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="14">
         <v>3</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="31">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="14">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="14">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="14">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="14">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="14">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="14">
+        <v>13</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="14">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="14">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="14">
+        <v>8</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="14">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="31">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="14">
         <v>4</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="31">
-        <v>7</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="14">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="14">
         <v>4</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="31">
-        <v>8</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="31">
-        <v>12</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="31">
-        <v>9</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="31">
-        <v>8</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="31">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="14">
+        <v>16</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="14">
         <v>10</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="31">
-        <v>6</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="31">
-        <v>11</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="31">
-        <v>12</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="31">
-        <v>12</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="31">
-        <v>8</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="31">
-        <v>13</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="31">
-        <v>6</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -2352,14 +3117,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/PROGRAM_SPEC/테이블 정의서.xlsx
+++ b/Document/PROGRAM_SPEC/테이블 정의서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>CBO 테이블 정의서</t>
   </si>
@@ -387,182 +387,170 @@
     <t>참조 테이블</t>
   </si>
   <si>
+    <t>PR과 INF.RCD를 이용하여 PO을 생성할 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATNR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANFN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Requisition Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBELN</t>
+  </si>
+  <si>
+    <t>Purchasing Document Number</t>
+  </si>
+  <si>
+    <t>BSART</t>
+  </si>
+  <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>Vendor's account number</t>
+  </si>
+  <si>
+    <t>ELIFN</t>
+  </si>
+  <si>
+    <t>EKORG</t>
+  </si>
+  <si>
+    <t>Purchasing organization</t>
+  </si>
+  <si>
+    <t>EKGRP</t>
+  </si>
+  <si>
+    <t>Purchasing Group</t>
+  </si>
+  <si>
+    <t>BUKRS</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>LOEKZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deletion indicator in purchasing document</t>
+  </si>
+  <si>
+    <t>ELOEK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Type (Purchasing)</t>
+  </si>
+  <si>
+    <t>MENGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Order Quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSTMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEINS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Order Unit of Measure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSTME</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEDAT</t>
+  </si>
+  <si>
+    <t>Purchasing Document Date</t>
+  </si>
+  <si>
+    <t>EBDAT</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>EWERK</t>
+  </si>
+  <si>
+    <t>Storage location</t>
+  </si>
+  <si>
+    <t>LGORT_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEIND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 테이블(스트럭쳐)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEPO1222 (HEADER), MEPO1211 (ITEM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2021.07.28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>송창대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ZPO_TABLE_SICS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>송창대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PO 생성 관리 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR과 INF.RCD를 이용하여 PO을 생성할 때 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATNR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATNR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANFN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Requisition Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBELN</t>
-  </si>
-  <si>
-    <t>Purchasing Document Number</t>
-  </si>
-  <si>
-    <t>BSART</t>
-  </si>
-  <si>
-    <t>LIFNR</t>
-  </si>
-  <si>
-    <t>Vendor's account number</t>
-  </si>
-  <si>
-    <t>ELIFN</t>
-  </si>
-  <si>
-    <t>EKORG</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchasing organization</t>
-  </si>
-  <si>
-    <t>EKGRP</t>
-  </si>
-  <si>
-    <t>Purchasing Group</t>
-  </si>
-  <si>
-    <t>BUKRS</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>LOEKZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deletion indicator in purchasing document</t>
-  </si>
-  <si>
-    <t>ELOEK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order Type (Purchasing)</t>
-  </si>
-  <si>
-    <t>MENGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Order Quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSTMG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEINS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Order Unit of Measure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSTME</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEDAT</t>
-  </si>
-  <si>
-    <t>Purchasing Document Date</t>
-  </si>
-  <si>
-    <t>EBDAT</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>EWERK</t>
-  </si>
-  <si>
-    <t>Storage location</t>
-  </si>
-  <si>
-    <t>LGORT_D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEIND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delivery Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참조 테이블(스트럭쳐)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEPO1222 (HEADER), MEPO1211 (ITEM)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2064,7 +2052,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2551,7 +2539,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2583,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
@@ -2594,7 +2582,7 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="34" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -2602,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2613,7 +2601,7 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2628,7 +2616,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2690,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>19</v>
@@ -2709,19 +2697,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G9" s="15">
         <v>40</v>
@@ -2734,19 +2722,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G10" s="14">
         <v>10</v>
@@ -2759,16 +2747,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>24</v>
@@ -2784,16 +2772,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>24</v>
@@ -2809,16 +2797,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>24</v>
@@ -2834,16 +2822,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>24</v>
@@ -2859,16 +2847,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>24</v>
@@ -2884,17 +2872,17 @@
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
@@ -2907,17 +2895,17 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G17" s="14">
         <v>4</v>
@@ -2930,17 +2918,17 @@
         <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G18" s="14">
         <v>13</v>
@@ -2953,17 +2941,17 @@
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G19" s="14">
         <v>3</v>
@@ -2976,14 +2964,14 @@
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>96</v>
@@ -3003,13 +2991,13 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G21" s="14">
         <v>4</v>
@@ -3026,13 +3014,13 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G22" s="14">
         <v>4</v>
@@ -3045,17 +3033,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G23" s="14">
         <v>10</v>
@@ -3087,11 +3075,11 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -3102,21 +3090,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/PROGRAM_SPEC/테이블 정의서.xlsx
+++ b/Document/PROGRAM_SPEC/테이블 정의서.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="108" windowWidth="10440" windowHeight="9696" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SO관리" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
   <si>
     <t>CBO 테이블 정의서</t>
   </si>
@@ -387,177 +392,22 @@
     <t>참조 테이블</t>
   </si>
   <si>
-    <t>PR과 INF.RCD를 이용하여 PO을 생성할 때 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATNR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANFN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Requisition Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBELN</t>
-  </si>
-  <si>
-    <t>Purchasing Document Number</t>
-  </si>
-  <si>
-    <t>BSART</t>
-  </si>
-  <si>
-    <t>LIFNR</t>
-  </si>
-  <si>
-    <t>Vendor's account number</t>
-  </si>
-  <si>
-    <t>ELIFN</t>
-  </si>
-  <si>
-    <t>EKORG</t>
-  </si>
-  <si>
-    <t>Purchasing organization</t>
-  </si>
-  <si>
-    <t>EKGRP</t>
-  </si>
-  <si>
-    <t>Purchasing Group</t>
-  </si>
-  <si>
-    <t>BUKRS</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>LOEKZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deletion indicator in purchasing document</t>
-  </si>
-  <si>
-    <t>ELOEK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order Type (Purchasing)</t>
-  </si>
-  <si>
-    <t>MENGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Order Quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSTMG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEINS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Order Unit of Measure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSTME</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEDAT</t>
-  </si>
-  <si>
-    <t>Purchasing Document Date</t>
-  </si>
-  <si>
-    <t>EBDAT</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>EWERK</t>
-  </si>
-  <si>
-    <t>Storage location</t>
-  </si>
-  <si>
-    <t>LGORT_D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEIND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delivery Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참조 테이블(스트럭쳐)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEPO1222 (HEADER), MEPO1211 (ITEM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.07.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송창대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPO_TABLE_SICS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO 생성 관리 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>VBAK (HEADER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR을 생성할 때 이미 고려된 SO 확인용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.08.03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +687,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,9 +729,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -866,27 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,6 +758,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -950,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,115 +1059,115 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1338,7 +1197,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1364,7 +1223,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1390,7 +1249,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1416,7 +1275,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1442,7 +1301,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1466,7 +1325,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1490,7 +1349,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -1516,7 +1375,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -1540,7 +1399,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>9</v>
       </c>
@@ -1564,7 +1423,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>10</v>
       </c>
@@ -1588,7 +1447,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -1612,7 +1471,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>12</v>
       </c>
@@ -1636,7 +1495,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>13</v>
       </c>
@@ -1660,7 +1519,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>14</v>
       </c>
@@ -1684,7 +1543,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1696,23 +1555,23 @@
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1724,7 +1583,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1736,7 +1595,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1748,7 +1607,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1760,7 +1619,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1772,7 +1631,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1784,7 +1643,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1796,7 +1655,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1808,7 +1667,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1820,7 +1679,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1832,7 +1691,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1844,7 +1703,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1856,7 +1715,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1868,7 +1727,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1880,7 +1739,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1892,7 +1751,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1904,7 +1763,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1916,7 +1775,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1928,7 +1787,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1940,7 +1799,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1952,7 +1811,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1964,7 +1823,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1976,7 +1835,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1988,7 +1847,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2000,7 +1859,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2012,7 +1871,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2026,495 +1885,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="14">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="14">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="15">
-        <v>40</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="14">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="14">
-        <v>40</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="14">
-        <v>13.3</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="14">
-        <v>5</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="14">
-        <v>3</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="14">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="14">
-        <v>4</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="14">
-        <v>8</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="14">
-        <v>12</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="14">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="14">
-        <v>8</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="14">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="14">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="14">
-        <v>11</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="14">
-        <v>12</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="14">
-        <v>12</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="14">
-        <v>8</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="14">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="14">
-        <v>6</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A5:B5"/>
@@ -2534,111 +1906,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="G2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="G3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
@@ -2667,7 +2039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -2678,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>19</v>
@@ -2692,24 +2064,24 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="G9" s="15">
         <v>40</v>
@@ -2717,96 +2089,92 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="G10" s="14">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G11" s="14">
-        <v>4</v>
+        <v>13.3</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G12" s="14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>24</v>
@@ -2817,294 +2185,463 @@
       <c r="H13" s="14"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G16" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G17" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="G18" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="G19" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G20" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="14">
-        <v>14</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="14">
-        <v>4</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="14">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="14">
-        <v>4</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="14">
-        <v>16</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="14">
-        <v>10</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:I26"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="15">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
